--- a/biology/Médecine/Coma_myxœdémateux/Coma_myxœdémateux.xlsx
+++ b/biology/Médecine/Coma_myxœdémateux/Coma_myxœdémateux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coma_myx%C5%93d%C3%A9mateux</t>
+          <t>Coma_myxœdémateux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le coma myxœdémateux est une complication rare mais grave de l'hypothyroïdie[1],[2],[3]. C'est un coma calme, hypothermique avec bradycardie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coma myxœdémateux est une complication rare mais grave de l'hypothyroïdie. C'est un coma calme, hypothermique avec bradycardie.
 Il est déclenché par une infection, un traumatisme, une intervention chirurgicale ou un arrêt du traitement substitutif.
 Le pronostic est dominé par plusieurs manifestations respiratoires : bradypnée, encombrement bronchique, épanchements pleuraux.
 Le pronostic est sombre malgré un traitement prudent par des hormones de substitution utilisées par voie parentérale.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coma_myx%C5%93d%C3%A9mateux</t>
+          <t>Coma_myxœdémateux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coma_myx%C5%93d%C3%A9mateux</t>
+          <t>Coma_myxœdémateux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,6 +555,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -548,7 +564,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coma_myx%C5%93d%C3%A9mateux</t>
+          <t>Coma_myxœdémateux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -567,6 +583,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
